--- a/data/다빈도질병통계_질별연령별10세구간별_2020(30_39).xlsx
+++ b/data/다빈도질병통계_질별연령별10세구간별_2020(30_39).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I509"/>
+  <dimension ref="A1:K509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,51 +434,53 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>다빈도질병통계_연령별10세구간별기준년도이전3년간현황(단위_명, 일, 건, 천원)_2020</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Unnamed: 1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Unnamed: 2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Unnamed: 3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Unnamed: 4</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Unnamed: 5</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Unnamed: 6</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Unnamed: 7</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Unnamed: 8</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr"/>
+      <c r="K1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -490,6 +492,8 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -509,51 +513,63 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>입원외래구분</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>코드</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>3단질병명</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="1" t="inlineStr">
         <is>
           <t>순위</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="1" t="inlineStr">
         <is>
           <t>환자수</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="1" t="inlineStr">
         <is>
           <t>내원일수</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="1" t="inlineStr">
         <is>
           <t>청구건수</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="1" t="inlineStr">
         <is>
           <t>요양급여비용총액</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" s="1" t="inlineStr">
         <is>
           <t>보험자부담금</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>연도</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>연령대</t>
         </is>
       </c>
     </row>
@@ -593,6 +609,16 @@
       <c r="I5" t="n">
         <v>100134483</v>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -630,6 +656,16 @@
       <c r="I6" t="n">
         <v>30311123</v>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -667,6 +703,16 @@
       <c r="I7" t="n">
         <v>66186502</v>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -704,6 +750,16 @@
       <c r="I8" t="n">
         <v>27727419</v>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -741,6 +797,16 @@
       <c r="I9" t="n">
         <v>53697907</v>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -778,6 +844,16 @@
       <c r="I10" t="n">
         <v>13224151</v>
       </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -815,6 +891,16 @@
       <c r="I11" t="n">
         <v>32874588</v>
       </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -852,6 +938,16 @@
       <c r="I12" t="n">
         <v>30317702</v>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -889,6 +985,16 @@
       <c r="I13" t="n">
         <v>9517819</v>
       </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -926,6 +1032,16 @@
       <c r="I14" t="n">
         <v>21224626</v>
       </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -963,6 +1079,16 @@
       <c r="I15" t="n">
         <v>5058352</v>
       </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1000,6 +1126,16 @@
       <c r="I16" t="n">
         <v>32584383</v>
       </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1037,6 +1173,16 @@
       <c r="I17" t="n">
         <v>28082866</v>
       </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1074,6 +1220,16 @@
       <c r="I18" t="n">
         <v>3872054</v>
       </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1111,6 +1267,16 @@
       <c r="I19" t="n">
         <v>2373125</v>
       </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1148,6 +1314,16 @@
       <c r="I20" t="n">
         <v>10490405</v>
       </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1185,6 +1361,16 @@
       <c r="I21" t="n">
         <v>6123565</v>
       </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1222,6 +1408,16 @@
       <c r="I22" t="n">
         <v>19755382</v>
       </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1259,6 +1455,16 @@
       <c r="I23" t="n">
         <v>28776614</v>
       </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1296,6 +1502,16 @@
       <c r="I24" t="n">
         <v>9007391</v>
       </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1333,6 +1549,16 @@
       <c r="I25" t="n">
         <v>17491757</v>
       </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1370,6 +1596,16 @@
       <c r="I26" t="n">
         <v>2818992</v>
       </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1407,6 +1643,16 @@
       <c r="I27" t="n">
         <v>6468620</v>
       </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1444,6 +1690,16 @@
       <c r="I28" t="n">
         <v>15163031</v>
       </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1481,6 +1737,16 @@
       <c r="I29" t="n">
         <v>5728174</v>
       </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1518,6 +1784,16 @@
       <c r="I30" t="n">
         <v>4267290</v>
       </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1555,6 +1831,16 @@
       <c r="I31" t="n">
         <v>2284034</v>
       </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1592,6 +1878,16 @@
       <c r="I32" t="n">
         <v>4538665</v>
       </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1629,6 +1925,16 @@
       <c r="I33" t="n">
         <v>8128842</v>
       </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1666,6 +1972,16 @@
       <c r="I34" t="n">
         <v>20120474</v>
       </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1703,6 +2019,16 @@
       <c r="I35" t="n">
         <v>16144861</v>
       </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1740,6 +2066,16 @@
       <c r="I36" t="n">
         <v>2144551</v>
       </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1777,6 +2113,16 @@
       <c r="I37" t="n">
         <v>7679793</v>
       </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1814,6 +2160,16 @@
       <c r="I38" t="n">
         <v>2725271</v>
       </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1851,6 +2207,16 @@
       <c r="I39" t="n">
         <v>8018800</v>
       </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1888,6 +2254,16 @@
       <c r="I40" t="n">
         <v>13510533</v>
       </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1925,6 +2301,16 @@
       <c r="I41" t="n">
         <v>5224156</v>
       </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1962,6 +2348,16 @@
       <c r="I42" t="n">
         <v>11592699</v>
       </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1999,6 +2395,16 @@
       <c r="I43" t="n">
         <v>2017597</v>
       </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2036,6 +2442,16 @@
       <c r="I44" t="n">
         <v>2303907</v>
       </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2073,6 +2489,16 @@
       <c r="I45" t="n">
         <v>2198567</v>
       </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2110,6 +2536,16 @@
       <c r="I46" t="n">
         <v>6481947</v>
       </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2147,6 +2583,16 @@
       <c r="I47" t="n">
         <v>2005554</v>
       </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2184,6 +2630,16 @@
       <c r="I48" t="n">
         <v>11232320</v>
       </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2221,6 +2677,16 @@
       <c r="I49" t="n">
         <v>1546850</v>
       </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2258,6 +2724,16 @@
       <c r="I50" t="n">
         <v>2576099</v>
       </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2295,6 +2771,16 @@
       <c r="I51" t="n">
         <v>10074002</v>
       </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2332,6 +2818,16 @@
       <c r="I52" t="n">
         <v>2631297</v>
       </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2369,6 +2865,16 @@
       <c r="I53" t="n">
         <v>6468077</v>
       </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2406,6 +2912,16 @@
       <c r="I54" t="n">
         <v>5039811</v>
       </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2443,6 +2959,16 @@
       <c r="I55" t="n">
         <v>8537402</v>
       </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2480,6 +3006,16 @@
       <c r="I56" t="n">
         <v>3963908</v>
       </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2517,6 +3053,16 @@
       <c r="I57" t="n">
         <v>5265787</v>
       </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2554,6 +3100,16 @@
       <c r="I58" t="n">
         <v>5744458</v>
       </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2591,6 +3147,16 @@
       <c r="I59" t="n">
         <v>4102464</v>
       </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2628,6 +3194,16 @@
       <c r="I60" t="n">
         <v>8004914</v>
       </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2665,6 +3241,16 @@
       <c r="I61" t="n">
         <v>29851630</v>
       </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2702,6 +3288,16 @@
       <c r="I62" t="n">
         <v>4203043</v>
       </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2739,6 +3335,16 @@
       <c r="I63" t="n">
         <v>26282051</v>
       </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2776,6 +3382,16 @@
       <c r="I64" t="n">
         <v>2995204</v>
       </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2813,6 +3429,16 @@
       <c r="I65" t="n">
         <v>4008228</v>
       </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2850,6 +3476,16 @@
       <c r="I66" t="n">
         <v>2639561</v>
       </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2887,6 +3523,16 @@
       <c r="I67" t="n">
         <v>7304978</v>
       </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2924,6 +3570,16 @@
       <c r="I68" t="n">
         <v>2729201</v>
       </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2961,6 +3617,16 @@
       <c r="I69" t="n">
         <v>1163021</v>
       </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2998,6 +3664,16 @@
       <c r="I70" t="n">
         <v>607333</v>
       </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3035,6 +3711,16 @@
       <c r="I71" t="n">
         <v>8011930</v>
       </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3072,6 +3758,16 @@
       <c r="I72" t="n">
         <v>9954287</v>
       </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3109,6 +3805,16 @@
       <c r="I73" t="n">
         <v>1661037</v>
       </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3146,6 +3852,16 @@
       <c r="I74" t="n">
         <v>9518560</v>
       </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3183,6 +3899,16 @@
       <c r="I75" t="n">
         <v>5122948</v>
       </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3220,6 +3946,16 @@
       <c r="I76" t="n">
         <v>1162041</v>
       </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3257,6 +3993,16 @@
       <c r="I77" t="n">
         <v>8287149</v>
       </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3294,6 +4040,16 @@
       <c r="I78" t="n">
         <v>3093885</v>
       </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3331,6 +4087,16 @@
       <c r="I79" t="n">
         <v>5796899</v>
       </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3368,6 +4134,16 @@
       <c r="I80" t="n">
         <v>2177344</v>
       </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3405,6 +4181,16 @@
       <c r="I81" t="n">
         <v>4209341</v>
       </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3442,6 +4228,16 @@
       <c r="I82" t="n">
         <v>1569409</v>
       </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3479,6 +4275,16 @@
       <c r="I83" t="n">
         <v>1240046</v>
       </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3516,6 +4322,16 @@
       <c r="I84" t="n">
         <v>3429836</v>
       </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3553,6 +4369,16 @@
       <c r="I85" t="n">
         <v>4428276</v>
       </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3590,6 +4416,16 @@
       <c r="I86" t="n">
         <v>1432642</v>
       </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3627,6 +4463,16 @@
       <c r="I87" t="n">
         <v>1344604</v>
       </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3664,6 +4510,16 @@
       <c r="I88" t="n">
         <v>1152596</v>
       </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3701,6 +4557,16 @@
       <c r="I89" t="n">
         <v>5081329</v>
       </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3738,6 +4604,16 @@
       <c r="I90" t="n">
         <v>18102518</v>
       </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3775,6 +4651,16 @@
       <c r="I91" t="n">
         <v>6998718</v>
       </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3812,6 +4698,16 @@
       <c r="I92" t="n">
         <v>1551243</v>
       </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3849,6 +4745,16 @@
       <c r="I93" t="n">
         <v>1251479</v>
       </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3886,6 +4792,16 @@
       <c r="I94" t="n">
         <v>1093064</v>
       </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3923,6 +4839,16 @@
       <c r="I95" t="n">
         <v>1287490</v>
       </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3960,6 +4886,16 @@
       <c r="I96" t="n">
         <v>4374058</v>
       </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3997,6 +4933,16 @@
       <c r="I97" t="n">
         <v>630541</v>
       </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4034,6 +4980,16 @@
       <c r="I98" t="n">
         <v>2192334</v>
       </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4071,6 +5027,16 @@
       <c r="I99" t="n">
         <v>1771798</v>
       </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4108,6 +5074,16 @@
       <c r="I100" t="n">
         <v>2261425</v>
       </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4145,6 +5121,16 @@
       <c r="I101" t="n">
         <v>1960937</v>
       </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4182,6 +5168,16 @@
       <c r="I102" t="n">
         <v>1807115</v>
       </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4219,6 +5215,16 @@
       <c r="I103" t="n">
         <v>2215046</v>
       </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4256,6 +5262,16 @@
       <c r="I104" t="n">
         <v>3891173</v>
       </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4293,6 +5309,16 @@
       <c r="I105" t="n">
         <v>2254755</v>
       </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4330,6 +5356,16 @@
       <c r="I106" t="n">
         <v>4823939</v>
       </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4367,6 +5403,16 @@
       <c r="I107" t="n">
         <v>2133283</v>
       </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4404,6 +5450,16 @@
       <c r="I108" t="n">
         <v>545193</v>
       </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4441,6 +5497,16 @@
       <c r="I109" t="n">
         <v>3293482</v>
       </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4478,6 +5544,16 @@
       <c r="I110" t="n">
         <v>781892</v>
       </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4515,6 +5591,16 @@
       <c r="I111" t="n">
         <v>8423235</v>
       </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4552,6 +5638,16 @@
       <c r="I112" t="n">
         <v>999689</v>
       </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4589,6 +5685,16 @@
       <c r="I113" t="n">
         <v>4143665</v>
       </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4626,6 +5732,16 @@
       <c r="I114" t="n">
         <v>1601525</v>
       </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4663,6 +5779,16 @@
       <c r="I115" t="n">
         <v>2701230</v>
       </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4700,6 +5826,16 @@
       <c r="I116" t="n">
         <v>1650323</v>
       </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4737,6 +5873,16 @@
       <c r="I117" t="n">
         <v>1846991</v>
       </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4774,6 +5920,16 @@
       <c r="I118" t="n">
         <v>1702337</v>
       </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4811,6 +5967,16 @@
       <c r="I119" t="n">
         <v>703680</v>
       </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4848,6 +6014,16 @@
       <c r="I120" t="n">
         <v>3293365</v>
       </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4885,6 +6061,16 @@
       <c r="I121" t="n">
         <v>1594605</v>
       </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4922,6 +6108,16 @@
       <c r="I122" t="n">
         <v>6334221</v>
       </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4959,6 +6155,16 @@
       <c r="I123" t="n">
         <v>8530249</v>
       </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4996,6 +6202,16 @@
       <c r="I124" t="n">
         <v>5180910</v>
       </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5033,6 +6249,16 @@
       <c r="I125" t="n">
         <v>476355</v>
       </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5070,6 +6296,16 @@
       <c r="I126" t="n">
         <v>766931</v>
       </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5107,6 +6343,16 @@
       <c r="I127" t="n">
         <v>1267396</v>
       </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5144,6 +6390,16 @@
       <c r="I128" t="n">
         <v>1175825</v>
       </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5181,6 +6437,16 @@
       <c r="I129" t="n">
         <v>616478</v>
       </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5218,6 +6484,16 @@
       <c r="I130" t="n">
         <v>1361351</v>
       </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5255,6 +6531,16 @@
       <c r="I131" t="n">
         <v>2200985</v>
       </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5292,6 +6578,16 @@
       <c r="I132" t="n">
         <v>2038964</v>
       </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5329,6 +6625,16 @@
       <c r="I133" t="n">
         <v>587725</v>
       </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5366,6 +6672,16 @@
       <c r="I134" t="n">
         <v>1655901</v>
       </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5403,6 +6719,16 @@
       <c r="I135" t="n">
         <v>1269392</v>
       </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5440,6 +6766,16 @@
       <c r="I136" t="n">
         <v>744749</v>
       </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5477,6 +6813,16 @@
       <c r="I137" t="n">
         <v>1825527</v>
       </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5514,6 +6860,16 @@
       <c r="I138" t="n">
         <v>6632962</v>
       </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -5551,6 +6907,16 @@
       <c r="I139" t="n">
         <v>1974707</v>
       </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -5588,6 +6954,16 @@
       <c r="I140" t="n">
         <v>2205055</v>
       </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -5625,6 +7001,16 @@
       <c r="I141" t="n">
         <v>1105278</v>
       </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -5662,6 +7048,16 @@
       <c r="I142" t="n">
         <v>2445067</v>
       </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -5699,6 +7095,16 @@
       <c r="I143" t="n">
         <v>3076679</v>
       </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5736,6 +7142,16 @@
       <c r="I144" t="n">
         <v>3110159</v>
       </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5773,6 +7189,16 @@
       <c r="I145" t="n">
         <v>9044573</v>
       </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5810,6 +7236,16 @@
       <c r="I146" t="n">
         <v>2023819</v>
       </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5847,6 +7283,16 @@
       <c r="I147" t="n">
         <v>2719081</v>
       </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5884,6 +7330,16 @@
       <c r="I148" t="n">
         <v>2733036</v>
       </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5921,6 +7377,16 @@
       <c r="I149" t="n">
         <v>844267</v>
       </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5958,6 +7424,16 @@
       <c r="I150" t="n">
         <v>877842</v>
       </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5995,6 +7471,16 @@
       <c r="I151" t="n">
         <v>1045571</v>
       </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6032,6 +7518,16 @@
       <c r="I152" t="n">
         <v>552541</v>
       </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6069,6 +7565,16 @@
       <c r="I153" t="n">
         <v>1280094</v>
       </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6106,6 +7612,16 @@
       <c r="I154" t="n">
         <v>8656731</v>
       </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6143,6 +7659,16 @@
       <c r="I155" t="n">
         <v>614538</v>
       </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6180,6 +7706,16 @@
       <c r="I156" t="n">
         <v>252553</v>
       </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6217,6 +7753,16 @@
       <c r="I157" t="n">
         <v>4511869</v>
       </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -6254,6 +7800,16 @@
       <c r="I158" t="n">
         <v>3942657</v>
       </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -6291,6 +7847,16 @@
       <c r="I159" t="n">
         <v>1854064</v>
       </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -6328,6 +7894,16 @@
       <c r="I160" t="n">
         <v>871180</v>
       </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -6365,6 +7941,16 @@
       <c r="I161" t="n">
         <v>2284330</v>
       </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -6402,6 +7988,16 @@
       <c r="I162" t="n">
         <v>1899130</v>
       </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -6439,6 +8035,16 @@
       <c r="I163" t="n">
         <v>4587425</v>
       </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -6476,6 +8082,16 @@
       <c r="I164" t="n">
         <v>1181788</v>
       </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -6513,6 +8129,16 @@
       <c r="I165" t="n">
         <v>336997</v>
       </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -6550,6 +8176,16 @@
       <c r="I166" t="n">
         <v>2250195</v>
       </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -6587,6 +8223,16 @@
       <c r="I167" t="n">
         <v>973767</v>
       </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -6624,6 +8270,16 @@
       <c r="I168" t="n">
         <v>647921</v>
       </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -6661,6 +8317,16 @@
       <c r="I169" t="n">
         <v>3235112</v>
       </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -6698,6 +8364,16 @@
       <c r="I170" t="n">
         <v>1985778</v>
       </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -6735,6 +8411,16 @@
       <c r="I171" t="n">
         <v>842363</v>
       </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -6772,6 +8458,16 @@
       <c r="I172" t="n">
         <v>699024</v>
       </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -6809,6 +8505,16 @@
       <c r="I173" t="n">
         <v>1437621</v>
       </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -6846,6 +8552,16 @@
       <c r="I174" t="n">
         <v>1128974</v>
       </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -6883,6 +8599,16 @@
       <c r="I175" t="n">
         <v>601785</v>
       </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -6920,6 +8646,16 @@
       <c r="I176" t="n">
         <v>586606</v>
       </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -6957,6 +8693,16 @@
       <c r="I177" t="n">
         <v>361301</v>
       </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -6994,6 +8740,16 @@
       <c r="I178" t="n">
         <v>693064</v>
       </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -7031,6 +8787,16 @@
       <c r="I179" t="n">
         <v>750241</v>
       </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -7068,6 +8834,16 @@
       <c r="I180" t="n">
         <v>714336</v>
       </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -7105,6 +8881,16 @@
       <c r="I181" t="n">
         <v>649740</v>
       </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -7142,6 +8928,16 @@
       <c r="I182" t="n">
         <v>1845663</v>
       </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -7179,6 +8975,16 @@
       <c r="I183" t="n">
         <v>4785791</v>
       </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -7216,6 +9022,16 @@
       <c r="I184" t="n">
         <v>1076579</v>
       </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -7253,6 +9069,16 @@
       <c r="I185" t="n">
         <v>1767032</v>
       </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -7290,6 +9116,16 @@
       <c r="I186" t="n">
         <v>789051</v>
       </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -7327,6 +9163,16 @@
       <c r="I187" t="n">
         <v>449466</v>
       </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -7364,6 +9210,16 @@
       <c r="I188" t="n">
         <v>586237</v>
       </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -7401,6 +9257,16 @@
       <c r="I189" t="n">
         <v>7672203</v>
       </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -7438,6 +9304,16 @@
       <c r="I190" t="n">
         <v>6576535</v>
       </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -7475,6 +9351,16 @@
       <c r="I191" t="n">
         <v>249565</v>
       </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -7512,6 +9398,16 @@
       <c r="I192" t="n">
         <v>661527</v>
       </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -7549,6 +9445,16 @@
       <c r="I193" t="n">
         <v>1515830</v>
       </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -7586,6 +9492,16 @@
       <c r="I194" t="n">
         <v>569668</v>
       </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -7623,6 +9539,16 @@
       <c r="I195" t="n">
         <v>1475948</v>
       </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -7660,6 +9586,16 @@
       <c r="I196" t="n">
         <v>13040216</v>
       </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -7697,6 +9633,16 @@
       <c r="I197" t="n">
         <v>1728193</v>
       </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -7734,6 +9680,16 @@
       <c r="I198" t="n">
         <v>924323</v>
       </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -7771,6 +9727,16 @@
       <c r="I199" t="n">
         <v>845569</v>
       </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -7808,6 +9774,16 @@
       <c r="I200" t="n">
         <v>782992</v>
       </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -7845,6 +9821,16 @@
       <c r="I201" t="n">
         <v>623523</v>
       </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -7882,6 +9868,16 @@
       <c r="I202" t="n">
         <v>657498</v>
       </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -7919,6 +9915,16 @@
       <c r="I203" t="n">
         <v>3737255</v>
       </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -7956,6 +9962,16 @@
       <c r="I204" t="n">
         <v>1060587</v>
       </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -7993,6 +10009,16 @@
       <c r="I205" t="n">
         <v>646315</v>
       </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -8030,6 +10056,16 @@
       <c r="I206" t="n">
         <v>557985</v>
       </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -8067,6 +10103,16 @@
       <c r="I207" t="n">
         <v>568404</v>
       </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -8104,6 +10150,16 @@
       <c r="I208" t="n">
         <v>715786</v>
       </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -8141,6 +10197,16 @@
       <c r="I209" t="n">
         <v>1855899</v>
       </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -8178,6 +10244,16 @@
       <c r="I210" t="n">
         <v>96429</v>
       </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -8215,6 +10291,16 @@
       <c r="I211" t="n">
         <v>2775354</v>
       </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -8252,6 +10338,16 @@
       <c r="I212" t="n">
         <v>1370463</v>
       </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -8289,6 +10385,16 @@
       <c r="I213" t="n">
         <v>8127137</v>
       </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -8326,6 +10432,16 @@
       <c r="I214" t="n">
         <v>418471</v>
       </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -8363,6 +10479,16 @@
       <c r="I215" t="n">
         <v>5639248</v>
       </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -8400,6 +10526,16 @@
       <c r="I216" t="n">
         <v>3321613</v>
       </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -8437,6 +10573,16 @@
       <c r="I217" t="n">
         <v>1206897</v>
       </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -8474,6 +10620,16 @@
       <c r="I218" t="n">
         <v>229785</v>
       </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -8511,6 +10667,16 @@
       <c r="I219" t="n">
         <v>442152</v>
       </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -8548,6 +10714,16 @@
       <c r="I220" t="n">
         <v>732981</v>
       </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -8585,6 +10761,16 @@
       <c r="I221" t="n">
         <v>960821</v>
       </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -8622,6 +10808,16 @@
       <c r="I222" t="n">
         <v>783948</v>
       </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -8659,6 +10855,16 @@
       <c r="I223" t="n">
         <v>1130678</v>
       </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -8696,6 +10902,16 @@
       <c r="I224" t="n">
         <v>371533</v>
       </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -8733,6 +10949,16 @@
       <c r="I225" t="n">
         <v>523080</v>
       </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -8770,6 +10996,16 @@
       <c r="I226" t="n">
         <v>641732</v>
       </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -8807,6 +11043,16 @@
       <c r="I227" t="n">
         <v>2772603</v>
       </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -8844,6 +11090,16 @@
       <c r="I228" t="n">
         <v>1403017</v>
       </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -8881,6 +11137,16 @@
       <c r="I229" t="n">
         <v>806632</v>
       </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -8918,6 +11184,16 @@
       <c r="I230" t="n">
         <v>227633</v>
       </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -8955,6 +11231,16 @@
       <c r="I231" t="n">
         <v>655087</v>
       </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -8992,6 +11278,16 @@
       <c r="I232" t="n">
         <v>777175</v>
       </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -9029,6 +11325,16 @@
       <c r="I233" t="n">
         <v>664495</v>
       </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -9066,6 +11372,16 @@
       <c r="I234" t="n">
         <v>633346</v>
       </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -9103,6 +11419,16 @@
       <c r="I235" t="n">
         <v>395761</v>
       </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -9140,6 +11466,16 @@
       <c r="I236" t="n">
         <v>250543</v>
       </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -9177,6 +11513,16 @@
       <c r="I237" t="n">
         <v>469662</v>
       </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -9214,6 +11560,16 @@
       <c r="I238" t="n">
         <v>9886971</v>
       </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -9251,6 +11607,16 @@
       <c r="I239" t="n">
         <v>785575</v>
       </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -9288,6 +11654,16 @@
       <c r="I240" t="n">
         <v>540553</v>
       </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -9325,6 +11701,16 @@
       <c r="I241" t="n">
         <v>632230</v>
       </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -9362,6 +11748,16 @@
       <c r="I242" t="n">
         <v>748245</v>
       </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -9399,6 +11795,16 @@
       <c r="I243" t="n">
         <v>1525647</v>
       </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -9436,6 +11842,16 @@
       <c r="I244" t="n">
         <v>2819355</v>
       </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -9473,6 +11889,16 @@
       <c r="I245" t="n">
         <v>1566182</v>
       </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -9510,6 +11936,16 @@
       <c r="I246" t="n">
         <v>6776985</v>
       </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -9547,6 +11983,16 @@
       <c r="I247" t="n">
         <v>159541</v>
       </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -9584,6 +12030,16 @@
       <c r="I248" t="n">
         <v>699844</v>
       </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -9621,6 +12077,16 @@
       <c r="I249" t="n">
         <v>596270</v>
       </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -9658,6 +12124,16 @@
       <c r="I250" t="n">
         <v>309258</v>
       </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -9695,6 +12171,16 @@
       <c r="I251" t="n">
         <v>2343150</v>
       </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -9732,6 +12218,16 @@
       <c r="I252" t="n">
         <v>1534633</v>
       </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -9769,6 +12265,16 @@
       <c r="I253" t="n">
         <v>6844324</v>
       </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -9806,6 +12312,16 @@
       <c r="I254" t="n">
         <v>1261535</v>
       </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -9843,6 +12359,16 @@
       <c r="I255" t="n">
         <v>279581</v>
       </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -9880,6 +12406,16 @@
       <c r="I256" t="n">
         <v>457112</v>
       </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -9917,6 +12453,16 @@
       <c r="I257" t="n">
         <v>543244</v>
       </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -9954,6 +12500,16 @@
       <c r="I258" t="n">
         <v>1380895</v>
       </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -9991,6 +12547,16 @@
       <c r="I259" t="n">
         <v>4994558</v>
       </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -10028,6 +12594,16 @@
       <c r="I260" t="n">
         <v>3139379</v>
       </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -10065,6 +12641,16 @@
       <c r="I261" t="n">
         <v>463197</v>
       </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -10102,6 +12688,16 @@
       <c r="I262" t="n">
         <v>523857</v>
       </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -10139,6 +12735,16 @@
       <c r="I263" t="n">
         <v>524856</v>
       </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -10176,6 +12782,16 @@
       <c r="I264" t="n">
         <v>568544</v>
       </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -10213,6 +12829,16 @@
       <c r="I265" t="n">
         <v>1214781</v>
       </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -10250,6 +12876,16 @@
       <c r="I266" t="n">
         <v>822411</v>
       </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -10287,6 +12923,16 @@
       <c r="I267" t="n">
         <v>301131</v>
       </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -10324,6 +12970,16 @@
       <c r="I268" t="n">
         <v>305754</v>
       </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -10361,6 +13017,16 @@
       <c r="I269" t="n">
         <v>653662</v>
       </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -10398,6 +13064,16 @@
       <c r="I270" t="n">
         <v>2232175</v>
       </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -10435,6 +13111,16 @@
       <c r="I271" t="n">
         <v>385124</v>
       </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -10472,6 +13158,16 @@
       <c r="I272" t="n">
         <v>206309</v>
       </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -10509,6 +13205,16 @@
       <c r="I273" t="n">
         <v>917000</v>
       </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -10546,6 +13252,16 @@
       <c r="I274" t="n">
         <v>381512</v>
       </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -10583,6 +13299,16 @@
       <c r="I275" t="n">
         <v>522951</v>
       </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -10620,6 +13346,16 @@
       <c r="I276" t="n">
         <v>871931</v>
       </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -10657,6 +13393,16 @@
       <c r="I277" t="n">
         <v>4738889</v>
       </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -10694,6 +13440,16 @@
       <c r="I278" t="n">
         <v>1009549</v>
       </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -10731,6 +13487,16 @@
       <c r="I279" t="n">
         <v>929893</v>
       </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -10768,6 +13534,16 @@
       <c r="I280" t="n">
         <v>161839</v>
       </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -10805,6 +13581,16 @@
       <c r="I281" t="n">
         <v>3308601</v>
       </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -10842,6 +13628,16 @@
       <c r="I282" t="n">
         <v>298772</v>
       </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -10879,6 +13675,16 @@
       <c r="I283" t="n">
         <v>868773</v>
       </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -10916,6 +13722,16 @@
       <c r="I284" t="n">
         <v>405737</v>
       </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -10953,6 +13769,16 @@
       <c r="I285" t="n">
         <v>2163964</v>
       </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -10990,6 +13816,16 @@
       <c r="I286" t="n">
         <v>197845</v>
       </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -11027,6 +13863,16 @@
       <c r="I287" t="n">
         <v>319826</v>
       </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -11064,6 +13910,16 @@
       <c r="I288" t="n">
         <v>417420</v>
       </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -11101,6 +13957,16 @@
       <c r="I289" t="n">
         <v>1105586</v>
       </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -11138,6 +14004,16 @@
       <c r="I290" t="n">
         <v>1356598</v>
       </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -11175,6 +14051,16 @@
       <c r="I291" t="n">
         <v>3573382</v>
       </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -11212,6 +14098,16 @@
       <c r="I292" t="n">
         <v>4949496</v>
       </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -11249,6 +14145,16 @@
       <c r="I293" t="n">
         <v>950053</v>
       </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -11286,6 +14192,16 @@
       <c r="I294" t="n">
         <v>285906</v>
       </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -11323,6 +14239,16 @@
       <c r="I295" t="n">
         <v>195483</v>
       </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -11360,6 +14286,16 @@
       <c r="I296" t="n">
         <v>372236</v>
       </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -11397,6 +14333,16 @@
       <c r="I297" t="n">
         <v>1870622</v>
       </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -11434,6 +14380,16 @@
       <c r="I298" t="n">
         <v>1818878</v>
       </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -11471,6 +14427,16 @@
       <c r="I299" t="n">
         <v>1455143</v>
       </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -11508,6 +14474,16 @@
       <c r="I300" t="n">
         <v>1821188</v>
       </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -11545,6 +14521,16 @@
       <c r="I301" t="n">
         <v>837066</v>
       </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -11582,6 +14568,16 @@
       <c r="I302" t="n">
         <v>176126</v>
       </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -11619,6 +14615,16 @@
       <c r="I303" t="n">
         <v>1627751</v>
       </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -11656,6 +14662,16 @@
       <c r="I304" t="n">
         <v>1588535</v>
       </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -11693,6 +14709,16 @@
       <c r="I305" t="n">
         <v>784523</v>
       </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -11730,6 +14756,16 @@
       <c r="I306" t="n">
         <v>536414</v>
       </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -11767,6 +14803,16 @@
       <c r="I307" t="n">
         <v>299229</v>
       </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -11804,6 +14850,16 @@
       <c r="I308" t="n">
         <v>1408287</v>
       </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -11841,6 +14897,16 @@
       <c r="I309" t="n">
         <v>5847250</v>
       </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -11878,6 +14944,16 @@
       <c r="I310" t="n">
         <v>279943</v>
       </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -11915,6 +14991,16 @@
       <c r="I311" t="n">
         <v>1009726</v>
       </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -11952,6 +15038,16 @@
       <c r="I312" t="n">
         <v>1077521</v>
       </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -11989,6 +15085,16 @@
       <c r="I313" t="n">
         <v>537721</v>
       </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -12026,6 +15132,16 @@
       <c r="I314" t="n">
         <v>223436</v>
       </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -12063,6 +15179,16 @@
       <c r="I315" t="n">
         <v>159435</v>
       </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -12100,6 +15226,16 @@
       <c r="I316" t="n">
         <v>273689</v>
       </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -12137,6 +15273,16 @@
       <c r="I317" t="n">
         <v>169139</v>
       </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -12174,6 +15320,16 @@
       <c r="I318" t="n">
         <v>270570</v>
       </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -12211,6 +15367,16 @@
       <c r="I319" t="n">
         <v>2837461</v>
       </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -12248,6 +15414,16 @@
       <c r="I320" t="n">
         <v>1418708</v>
       </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -12285,6 +15461,16 @@
       <c r="I321" t="n">
         <v>12410417</v>
       </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -12322,6 +15508,16 @@
       <c r="I322" t="n">
         <v>110742</v>
       </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -12359,6 +15555,16 @@
       <c r="I323" t="n">
         <v>227318</v>
       </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -12396,6 +15602,16 @@
       <c r="I324" t="n">
         <v>640499</v>
       </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -12433,6 +15649,16 @@
       <c r="I325" t="n">
         <v>3306040</v>
       </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -12470,6 +15696,16 @@
       <c r="I326" t="n">
         <v>171791</v>
       </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -12507,6 +15743,16 @@
       <c r="I327" t="n">
         <v>2500520</v>
       </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -12544,6 +15790,16 @@
       <c r="I328" t="n">
         <v>2405935</v>
       </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -12581,6 +15837,16 @@
       <c r="I329" t="n">
         <v>326788</v>
       </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -12618,6 +15884,16 @@
       <c r="I330" t="n">
         <v>540840</v>
       </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -12655,6 +15931,16 @@
       <c r="I331" t="n">
         <v>244462</v>
       </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -12692,6 +15978,16 @@
       <c r="I332" t="n">
         <v>1106867</v>
       </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -12729,6 +16025,16 @@
       <c r="I333" t="n">
         <v>711284</v>
       </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -12766,6 +16072,16 @@
       <c r="I334" t="n">
         <v>628308</v>
       </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -12803,6 +16119,16 @@
       <c r="I335" t="n">
         <v>125934</v>
       </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -12840,6 +16166,16 @@
       <c r="I336" t="n">
         <v>140340</v>
       </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -12877,6 +16213,16 @@
       <c r="I337" t="n">
         <v>136401</v>
       </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -12914,6 +16260,16 @@
       <c r="I338" t="n">
         <v>312030</v>
       </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -12951,6 +16307,16 @@
       <c r="I339" t="n">
         <v>145986</v>
       </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -12988,6 +16354,16 @@
       <c r="I340" t="n">
         <v>49920</v>
       </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -13025,6 +16401,16 @@
       <c r="I341" t="n">
         <v>426268</v>
       </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -13062,6 +16448,16 @@
       <c r="I342" t="n">
         <v>927174</v>
       </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -13099,6 +16495,16 @@
       <c r="I343" t="n">
         <v>243715</v>
       </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -13136,6 +16542,16 @@
       <c r="I344" t="n">
         <v>283882</v>
       </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -13173,6 +16589,16 @@
       <c r="I345" t="n">
         <v>3076805</v>
       </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -13210,6 +16636,16 @@
       <c r="I346" t="n">
         <v>145825</v>
       </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -13247,6 +16683,16 @@
       <c r="I347" t="n">
         <v>184399</v>
       </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -13284,6 +16730,16 @@
       <c r="I348" t="n">
         <v>671824</v>
       </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -13321,6 +16777,16 @@
       <c r="I349" t="n">
         <v>972461</v>
       </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -13358,6 +16824,16 @@
       <c r="I350" t="n">
         <v>503571</v>
       </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -13395,6 +16871,16 @@
       <c r="I351" t="n">
         <v>198073</v>
       </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -13432,6 +16918,16 @@
       <c r="I352" t="n">
         <v>189851</v>
       </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -13469,6 +16965,16 @@
       <c r="I353" t="n">
         <v>239154</v>
       </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -13506,6 +17012,16 @@
       <c r="I354" t="n">
         <v>53739</v>
       </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -13543,6 +17059,16 @@
       <c r="I355" t="n">
         <v>336634</v>
       </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -13580,6 +17106,16 @@
       <c r="I356" t="n">
         <v>118180</v>
       </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -13617,6 +17153,16 @@
       <c r="I357" t="n">
         <v>61603</v>
       </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -13654,6 +17200,16 @@
       <c r="I358" t="n">
         <v>2424349</v>
       </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -13691,6 +17247,16 @@
       <c r="I359" t="n">
         <v>80956</v>
       </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -13728,6 +17294,16 @@
       <c r="I360" t="n">
         <v>752305</v>
       </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -13765,6 +17341,16 @@
       <c r="I361" t="n">
         <v>600353</v>
       </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -13802,6 +17388,16 @@
       <c r="I362" t="n">
         <v>704594</v>
       </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -13839,6 +17435,16 @@
       <c r="I363" t="n">
         <v>496065</v>
       </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -13876,6 +17482,16 @@
       <c r="I364" t="n">
         <v>2052003</v>
       </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -13913,6 +17529,16 @@
       <c r="I365" t="n">
         <v>3715947</v>
       </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -13950,6 +17576,16 @@
       <c r="I366" t="n">
         <v>2358307</v>
       </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -13987,6 +17623,16 @@
       <c r="I367" t="n">
         <v>145936</v>
       </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -14024,6 +17670,16 @@
       <c r="I368" t="n">
         <v>448993</v>
       </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -14061,6 +17717,16 @@
       <c r="I369" t="n">
         <v>88645</v>
       </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -14098,6 +17764,16 @@
       <c r="I370" t="n">
         <v>1350145</v>
       </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -14135,6 +17811,16 @@
       <c r="I371" t="n">
         <v>288516</v>
       </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -14172,6 +17858,16 @@
       <c r="I372" t="n">
         <v>1131722</v>
       </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -14209,6 +17905,16 @@
       <c r="I373" t="n">
         <v>485492</v>
       </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -14246,6 +17952,16 @@
       <c r="I374" t="n">
         <v>1024683</v>
       </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -14283,6 +17999,16 @@
       <c r="I375" t="n">
         <v>1874796</v>
       </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -14320,6 +18046,16 @@
       <c r="I376" t="n">
         <v>1141539</v>
       </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -14357,6 +18093,16 @@
       <c r="I377" t="n">
         <v>108786</v>
       </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -14394,6 +18140,16 @@
       <c r="I378" t="n">
         <v>628591</v>
       </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -14431,6 +18187,16 @@
       <c r="I379" t="n">
         <v>445193</v>
       </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -14468,6 +18234,16 @@
       <c r="I380" t="n">
         <v>300379</v>
       </c>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -14505,6 +18281,16 @@
       <c r="I381" t="n">
         <v>954943</v>
       </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -14542,6 +18328,16 @@
       <c r="I382" t="n">
         <v>89048</v>
       </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -14579,6 +18375,16 @@
       <c r="I383" t="n">
         <v>1526915</v>
       </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -14616,6 +18422,16 @@
       <c r="I384" t="n">
         <v>53911</v>
       </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -14653,6 +18469,16 @@
       <c r="I385" t="n">
         <v>98118</v>
       </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -14690,6 +18516,16 @@
       <c r="I386" t="n">
         <v>277484</v>
       </c>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -14727,6 +18563,16 @@
       <c r="I387" t="n">
         <v>1663907</v>
       </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -14764,6 +18610,16 @@
       <c r="I388" t="n">
         <v>254203</v>
       </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -14801,6 +18657,16 @@
       <c r="I389" t="n">
         <v>166481</v>
       </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -14838,6 +18704,16 @@
       <c r="I390" t="n">
         <v>162647</v>
       </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -14875,6 +18751,16 @@
       <c r="I391" t="n">
         <v>103218</v>
       </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -14912,6 +18798,16 @@
       <c r="I392" t="n">
         <v>434677</v>
       </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -14949,6 +18845,16 @@
       <c r="I393" t="n">
         <v>403509</v>
       </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -14986,6 +18892,16 @@
       <c r="I394" t="n">
         <v>448265</v>
       </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -15023,6 +18939,16 @@
       <c r="I395" t="n">
         <v>98077</v>
       </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -15060,6 +18986,16 @@
       <c r="I396" t="n">
         <v>3411648</v>
       </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -15097,6 +19033,16 @@
       <c r="I397" t="n">
         <v>565541</v>
       </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -15134,6 +19080,16 @@
       <c r="I398" t="n">
         <v>148070</v>
       </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -15171,6 +19127,16 @@
       <c r="I399" t="n">
         <v>198951</v>
       </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -15208,6 +19174,16 @@
       <c r="I400" t="n">
         <v>285779</v>
       </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -15245,6 +19221,16 @@
       <c r="I401" t="n">
         <v>1083690</v>
       </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -15282,6 +19268,16 @@
       <c r="I402" t="n">
         <v>641683</v>
       </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -15319,6 +19315,16 @@
       <c r="I403" t="n">
         <v>676831</v>
       </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -15356,6 +19362,16 @@
       <c r="I404" t="n">
         <v>537593</v>
       </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -15393,6 +19409,16 @@
       <c r="I405" t="n">
         <v>126406</v>
       </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -15430,6 +19456,16 @@
       <c r="I406" t="n">
         <v>485818</v>
       </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -15467,6 +19503,16 @@
       <c r="I407" t="n">
         <v>40641</v>
       </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -15504,6 +19550,16 @@
       <c r="I408" t="n">
         <v>199857</v>
       </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -15541,6 +19597,16 @@
       <c r="I409" t="n">
         <v>635428</v>
       </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -15578,6 +19644,16 @@
       <c r="I410" t="n">
         <v>200655</v>
       </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -15615,6 +19691,16 @@
       <c r="I411" t="n">
         <v>332732</v>
       </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -15652,6 +19738,16 @@
       <c r="I412" t="n">
         <v>158903</v>
       </c>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -15689,6 +19785,16 @@
       <c r="I413" t="n">
         <v>523856</v>
       </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -15726,6 +19832,16 @@
       <c r="I414" t="n">
         <v>219460</v>
       </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -15763,6 +19879,16 @@
       <c r="I415" t="n">
         <v>100746</v>
       </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -15800,6 +19926,16 @@
       <c r="I416" t="n">
         <v>133925</v>
       </c>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -15837,6 +19973,16 @@
       <c r="I417" t="n">
         <v>107419</v>
       </c>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -15874,6 +20020,16 @@
       <c r="I418" t="n">
         <v>168987</v>
       </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -15911,6 +20067,16 @@
       <c r="I419" t="n">
         <v>249828</v>
       </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -15948,6 +20114,16 @@
       <c r="I420" t="n">
         <v>193820</v>
       </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -15985,6 +20161,16 @@
       <c r="I421" t="n">
         <v>199863</v>
       </c>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -16022,6 +20208,16 @@
       <c r="I422" t="n">
         <v>127008</v>
       </c>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -16059,6 +20255,16 @@
       <c r="I423" t="n">
         <v>120914</v>
       </c>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -16096,6 +20302,16 @@
       <c r="I424" t="n">
         <v>218508</v>
       </c>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -16133,6 +20349,16 @@
       <c r="I425" t="n">
         <v>224023</v>
       </c>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -16170,6 +20396,16 @@
       <c r="I426" t="n">
         <v>185549</v>
       </c>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -16207,6 +20443,16 @@
       <c r="I427" t="n">
         <v>389804</v>
       </c>
+      <c r="J427" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -16244,6 +20490,16 @@
       <c r="I428" t="n">
         <v>304931</v>
       </c>
+      <c r="J428" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -16281,6 +20537,16 @@
       <c r="I429" t="n">
         <v>295465</v>
       </c>
+      <c r="J429" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -16318,6 +20584,16 @@
       <c r="I430" t="n">
         <v>104700</v>
       </c>
+      <c r="J430" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -16355,6 +20631,16 @@
       <c r="I431" t="n">
         <v>184048</v>
       </c>
+      <c r="J431" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -16392,6 +20678,16 @@
       <c r="I432" t="n">
         <v>103950</v>
       </c>
+      <c r="J432" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -16429,6 +20725,16 @@
       <c r="I433" t="n">
         <v>823367</v>
       </c>
+      <c r="J433" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -16466,6 +20772,16 @@
       <c r="I434" t="n">
         <v>66082</v>
       </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -16503,6 +20819,16 @@
       <c r="I435" t="n">
         <v>91312</v>
       </c>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -16540,6 +20866,16 @@
       <c r="I436" t="n">
         <v>68460</v>
       </c>
+      <c r="J436" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -16577,6 +20913,16 @@
       <c r="I437" t="n">
         <v>143302</v>
       </c>
+      <c r="J437" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -16614,6 +20960,16 @@
       <c r="I438" t="n">
         <v>36791</v>
       </c>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -16651,6 +21007,16 @@
       <c r="I439" t="n">
         <v>169286</v>
       </c>
+      <c r="J439" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -16688,6 +21054,16 @@
       <c r="I440" t="n">
         <v>166356</v>
       </c>
+      <c r="J440" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -16725,6 +21101,16 @@
       <c r="I441" t="n">
         <v>188957</v>
       </c>
+      <c r="J441" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -16762,6 +21148,16 @@
       <c r="I442" t="n">
         <v>776697</v>
       </c>
+      <c r="J442" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -16799,6 +21195,16 @@
       <c r="I443" t="n">
         <v>188142</v>
       </c>
+      <c r="J443" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -16836,6 +21242,16 @@
       <c r="I444" t="n">
         <v>4070204</v>
       </c>
+      <c r="J444" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -16873,6 +21289,16 @@
       <c r="I445" t="n">
         <v>210194</v>
       </c>
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -16910,6 +21336,16 @@
       <c r="I446" t="n">
         <v>143565</v>
       </c>
+      <c r="J446" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -16947,6 +21383,16 @@
       <c r="I447" t="n">
         <v>168507</v>
       </c>
+      <c r="J447" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -16984,6 +21430,16 @@
       <c r="I448" t="n">
         <v>64138</v>
       </c>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -17021,6 +21477,16 @@
       <c r="I449" t="n">
         <v>1902023</v>
       </c>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -17058,6 +21524,16 @@
       <c r="I450" t="n">
         <v>611781</v>
       </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -17095,6 +21571,16 @@
       <c r="I451" t="n">
         <v>751039</v>
       </c>
+      <c r="J451" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -17132,6 +21618,16 @@
       <c r="I452" t="n">
         <v>141029</v>
       </c>
+      <c r="J452" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -17169,6 +21665,16 @@
       <c r="I453" t="n">
         <v>450770</v>
       </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -17206,6 +21712,16 @@
       <c r="I454" t="n">
         <v>80902</v>
       </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -17243,6 +21759,16 @@
       <c r="I455" t="n">
         <v>278493</v>
       </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -17280,6 +21806,16 @@
       <c r="I456" t="n">
         <v>234837</v>
       </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -17317,6 +21853,16 @@
       <c r="I457" t="n">
         <v>87858</v>
       </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -17354,6 +21900,16 @@
       <c r="I458" t="n">
         <v>1721157</v>
       </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -17391,6 +21947,16 @@
       <c r="I459" t="n">
         <v>100718</v>
       </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -17428,6 +21994,16 @@
       <c r="I460" t="n">
         <v>308132</v>
       </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -17465,6 +22041,16 @@
       <c r="I461" t="n">
         <v>171983</v>
       </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -17502,6 +22088,16 @@
       <c r="I462" t="n">
         <v>457306</v>
       </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -17539,6 +22135,16 @@
       <c r="I463" t="n">
         <v>285541</v>
       </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -17576,6 +22182,16 @@
       <c r="I464" t="n">
         <v>524212</v>
       </c>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -17613,6 +22229,16 @@
       <c r="I465" t="n">
         <v>725308</v>
       </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -17650,6 +22276,16 @@
       <c r="I466" t="n">
         <v>1293347</v>
       </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -17687,6 +22323,16 @@
       <c r="I467" t="n">
         <v>113747</v>
       </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -17724,6 +22370,16 @@
       <c r="I468" t="n">
         <v>282147</v>
       </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -17761,6 +22417,16 @@
       <c r="I469" t="n">
         <v>221333</v>
       </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -17798,6 +22464,16 @@
       <c r="I470" t="n">
         <v>472262</v>
       </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -17835,6 +22511,16 @@
       <c r="I471" t="n">
         <v>776407</v>
       </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -17872,6 +22558,16 @@
       <c r="I472" t="n">
         <v>161178</v>
       </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -17909,6 +22605,16 @@
       <c r="I473" t="n">
         <v>87445</v>
       </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -17946,6 +22652,16 @@
       <c r="I474" t="n">
         <v>493989</v>
       </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -17983,6 +22699,16 @@
       <c r="I475" t="n">
         <v>1612358</v>
       </c>
+      <c r="J475" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -18020,6 +22746,16 @@
       <c r="I476" t="n">
         <v>174234</v>
       </c>
+      <c r="J476" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -18057,6 +22793,16 @@
       <c r="I477" t="n">
         <v>7912224</v>
       </c>
+      <c r="J477" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -18094,6 +22840,16 @@
       <c r="I478" t="n">
         <v>414491</v>
       </c>
+      <c r="J478" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -18131,6 +22887,16 @@
       <c r="I479" t="n">
         <v>584175</v>
       </c>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -18168,6 +22934,16 @@
       <c r="I480" t="n">
         <v>92890</v>
       </c>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -18205,6 +22981,16 @@
       <c r="I481" t="n">
         <v>937826</v>
       </c>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -18242,6 +23028,16 @@
       <c r="I482" t="n">
         <v>96384</v>
       </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -18279,6 +23075,16 @@
       <c r="I483" t="n">
         <v>332161</v>
       </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -18316,6 +23122,16 @@
       <c r="I484" t="n">
         <v>1008175</v>
       </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -18353,6 +23169,16 @@
       <c r="I485" t="n">
         <v>305374</v>
       </c>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -18390,6 +23216,16 @@
       <c r="I486" t="n">
         <v>43298</v>
       </c>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -18427,6 +23263,16 @@
       <c r="I487" t="n">
         <v>365574</v>
       </c>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -18464,6 +23310,16 @@
       <c r="I488" t="n">
         <v>219329</v>
       </c>
+      <c r="J488" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -18501,6 +23357,16 @@
       <c r="I489" t="n">
         <v>297302</v>
       </c>
+      <c r="J489" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -18538,6 +23404,16 @@
       <c r="I490" t="n">
         <v>83452</v>
       </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -18575,6 +23451,16 @@
       <c r="I491" t="n">
         <v>1219807</v>
       </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -18612,6 +23498,16 @@
       <c r="I492" t="n">
         <v>62292</v>
       </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -18649,6 +23545,16 @@
       <c r="I493" t="n">
         <v>198268</v>
       </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -18686,6 +23592,16 @@
       <c r="I494" t="n">
         <v>548898</v>
       </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -18723,6 +23639,16 @@
       <c r="I495" t="n">
         <v>294744</v>
       </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -18760,6 +23686,16 @@
       <c r="I496" t="n">
         <v>723491</v>
       </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -18797,6 +23733,16 @@
       <c r="I497" t="n">
         <v>977507</v>
       </c>
+      <c r="J497" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -18834,6 +23780,16 @@
       <c r="I498" t="n">
         <v>397542</v>
       </c>
+      <c r="J498" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -18871,6 +23827,16 @@
       <c r="I499" t="n">
         <v>290394</v>
       </c>
+      <c r="J499" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -18908,6 +23874,16 @@
       <c r="I500" t="n">
         <v>1134789</v>
       </c>
+      <c r="J500" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -18945,6 +23921,16 @@
       <c r="I501" t="n">
         <v>1106007</v>
       </c>
+      <c r="J501" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -18982,6 +23968,16 @@
       <c r="I502" t="n">
         <v>600762</v>
       </c>
+      <c r="J502" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -19019,6 +24015,16 @@
       <c r="I503" t="n">
         <v>120505</v>
       </c>
+      <c r="J503" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -19056,6 +24062,16 @@
       <c r="I504" t="n">
         <v>276137</v>
       </c>
+      <c r="J504" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -19093,6 +24109,16 @@
       <c r="I505" t="n">
         <v>31664</v>
       </c>
+      <c r="J505" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -19130,6 +24156,16 @@
       <c r="I506" t="n">
         <v>75602</v>
       </c>
+      <c r="J506" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -19167,6 +24203,16 @@
       <c r="I507" t="n">
         <v>138392</v>
       </c>
+      <c r="J507" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -19204,6 +24250,16 @@
       <c r="I508" t="n">
         <v>463083</v>
       </c>
+      <c r="J508" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -19240,6 +24296,16 @@
       </c>
       <c r="I509" t="n">
         <v>336901</v>
+      </c>
+      <c r="J509" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>30_39</t>
+        </is>
       </c>
     </row>
   </sheetData>
